--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_007/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_007/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01173708920187793</v>
+        <v>0.02987421383647799</v>
       </c>
       <c r="C3" t="n">
-        <v>61.80612898943223</v>
+        <v>68.33359122602761</v>
       </c>
       <c r="D3" t="n">
-        <v>96.99707966309833</v>
+        <v>168.2304797105713</v>
       </c>
       <c r="E3" t="n">
-        <v>7.344141498603027e-07</v>
+        <v>3.029121982321961e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.000216790227547635</v>
+        <v>0.0004483009569896832</v>
       </c>
       <c r="G3" t="n">
-        <v>1.075</v>
+        <v>0.515</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7216666666666668</v>
+        <v>1.131666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.09282617716280404</v>
+        <v>0.066459495610053</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2402413757077614</v>
+        <v>0.4441474542796252</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3788580565430957</v>
+        <v>1.044996504164115</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.5266363017631716</v>
+        <v>-0.6793930183929782</v>
       </c>
       <c r="N3" t="n">
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P3" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R3" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03925602912469044</v>
+        <v>0.06836474506054581</v>
       </c>
       <c r="C4" t="n">
-        <v>53.91531146879188</v>
+        <v>45.55961739888541</v>
       </c>
       <c r="D4" t="n">
-        <v>64.6897729647126</v>
+        <v>85.28903943682272</v>
       </c>
       <c r="E4" t="n">
-        <v>1.135115878741661e-06</v>
+        <v>1.118033086268047e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000268075697430729</v>
+        <v>0.0006398913916463504</v>
       </c>
       <c r="G4" t="n">
-        <v>1.515750639122412</v>
+        <v>1.396463450825522</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3655001990153028</v>
+        <v>0.5150256424969329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7008872504569529</v>
+        <v>0.4801129810537007</v>
       </c>
       <c r="J4" t="n">
-        <v>1.156592500709941</v>
+        <v>0.7657798138376077</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1633258550246156</v>
+        <v>0.2909257771710826</v>
       </c>
       <c r="L4" t="n">
-        <v>1.341023101529978</v>
+        <v>1.23050296086227</v>
       </c>
       <c r="M4" t="n">
-        <v>1.026886799136247</v>
+        <v>0.5231789066720477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.406390026984798</v>
+        <v>11.00807209532212</v>
       </c>
       <c r="D5" t="n">
-        <v>27.59523486518781</v>
+        <v>69.41272103350096</v>
       </c>
       <c r="E5" t="n">
-        <v>1.38538492099297e-08</v>
+        <v>1.105151559339242e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>7.16512385098636e-06</v>
+        <v>1.744891689700741e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.858804811051305</v>
+        <v>-0.9445900421989764</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07721370489210269</v>
+        <v>0.08196969497370159</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.511465277725746</v>
+        <v>-0.7064540981327783</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.130798501250309</v>
+        <v>-1.422191093724894</v>
       </c>
       <c r="N5" t="n">
         <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P5" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R5" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>28.9697618401383</v>
+        <v>37.07140821538312</v>
       </c>
       <c r="D6" t="n">
-        <v>54.70989167406218</v>
+        <v>110.395077282608</v>
       </c>
       <c r="E6" t="n">
-        <v>1.35163036351378e-07</v>
+        <v>2.503142991512897e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>6.36049841348557e-05</v>
+        <v>0.0001134261138312645</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8122954805337355</v>
+        <v>-0.5279230844089381</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1390284445698826</v>
+        <v>0.217199472120847</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4531011799513495</v>
+        <v>0.03361716677193069</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.104378548088538</v>
+        <v>-0.9930684507043798</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P6" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q6" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R6" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>45.22545278296515</v>
+        <v>56.96802743315126</v>
       </c>
       <c r="D7" t="n">
-        <v>78.64905354957776</v>
+        <v>130.0799023245484</v>
       </c>
       <c r="E7" t="n">
-        <v>3.600044551552547e-07</v>
+        <v>8.147053268566206e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001188371813901453</v>
+        <v>0.0002702853886917155</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4491787379132711</v>
+        <v>-0.1403218901672031</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1970198392902885</v>
+        <v>0.3770369165707581</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03957327202573103</v>
+        <v>0.7890090375129861</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7462109459097173</v>
+        <v>-0.7882029143531137</v>
       </c>
       <c r="N7" t="n">
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P7" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q7" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R7" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -878,52 +878,52 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>69.68896930719649</v>
+        <v>79.54573259558356</v>
       </c>
       <c r="D8" t="n">
-        <v>106.0950526474616</v>
+        <v>220.4214648199232</v>
       </c>
       <c r="E8" t="n">
-        <v>8.893107046141586e-07</v>
+        <v>2.327142177499583e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002503492900080056</v>
+        <v>0.0004994876647205072</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1640872596457833</v>
+        <v>0.4955362300574263</v>
       </c>
       <c r="K8" t="n">
-        <v>0.284115659372159</v>
+        <v>0.6251566066201379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6959172147744159</v>
+        <v>1.892208721949336</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3693049206689472</v>
+        <v>-0.5771519498112445</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P8" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q8" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R8" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1408450704225352</v>
+        <v>0.3773584905660377</v>
       </c>
       <c r="C9" t="n">
-        <v>273.683978327085</v>
+        <v>223.3789157638142</v>
       </c>
       <c r="D9" t="n">
-        <v>379.2357228118058</v>
+        <v>417.0964501863664</v>
       </c>
       <c r="E9" t="n">
-        <v>7.653160410004444e-06</v>
+        <v>8.648722850454992e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001209408535701709</v>
+        <v>0.003877706798876427</v>
       </c>
       <c r="G9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.854703920099788</v>
+        <v>2.107348261922775</v>
       </c>
       <c r="K9" t="n">
-        <v>0.993052292512984</v>
+        <v>1.596573835072234</v>
       </c>
       <c r="L9" t="n">
-        <v>5.60484504587697</v>
+        <v>4.001301792535731</v>
       </c>
       <c r="M9" t="n">
-        <v>2.506502401418479</v>
+        <v>1.072778197897178</v>
       </c>
       <c r="N9" t="n">
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1365</v>
+        <v>1451</v>
       </c>
       <c r="P9" t="n">
-        <v>1435</v>
+        <v>1556</v>
       </c>
       <c r="Q9" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="R9" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
